--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H2">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I2">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J2">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N2">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O2">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P2">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q2">
-        <v>0.3630132242031335</v>
+        <v>0.7906680403874999</v>
       </c>
       <c r="R2">
-        <v>0.3630132242031335</v>
+        <v>3.16267216155</v>
       </c>
       <c r="S2">
-        <v>0.0001401355433027925</v>
+        <v>0.0002329553497644049</v>
       </c>
       <c r="T2">
-        <v>0.0001401355433027925</v>
+        <v>0.0001506371072306538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H3">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I3">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J3">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N3">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O3">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P3">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q3">
-        <v>48.45378320869398</v>
+        <v>52.04970918056251</v>
       </c>
       <c r="R3">
-        <v>48.45378320869398</v>
+        <v>312.298255083375</v>
       </c>
       <c r="S3">
-        <v>0.01870482060242103</v>
+        <v>0.01533546012730071</v>
       </c>
       <c r="T3">
-        <v>0.01870482060242103</v>
+        <v>0.01487467032178406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H4">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I4">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J4">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N4">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O4">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P4">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q4">
-        <v>39.64698601937609</v>
+        <v>40.1700234896125</v>
       </c>
       <c r="R4">
-        <v>39.64698601937609</v>
+        <v>241.020140937675</v>
       </c>
       <c r="S4">
-        <v>0.01530509511971528</v>
+        <v>0.01183533593628098</v>
       </c>
       <c r="T4">
-        <v>0.01530509511971528</v>
+        <v>0.01147971555717058</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H5">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I5">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J5">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N5">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O5">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P5">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q5">
-        <v>39.6748924787823</v>
+        <v>40.91156119655</v>
       </c>
       <c r="R5">
-        <v>39.6748924787823</v>
+        <v>245.4693671793</v>
       </c>
       <c r="S5">
-        <v>0.01531586796926954</v>
+        <v>0.01205381596463581</v>
       </c>
       <c r="T5">
-        <v>0.01531586796926954</v>
+        <v>0.01169163084153083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H6">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I6">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J6">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N6">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O6">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P6">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q6">
-        <v>1.979514265147557</v>
+        <v>2.226426950275</v>
       </c>
       <c r="R6">
-        <v>1.979514265147557</v>
+        <v>13.35856170165</v>
       </c>
       <c r="S6">
-        <v>0.0007641603350153835</v>
+        <v>0.0006559744955316769</v>
       </c>
       <c r="T6">
-        <v>0.0007641603350153835</v>
+        <v>0.0006362642059341829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H7">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I7">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J7">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N7">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O7">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P7">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q7">
-        <v>68.63376068198697</v>
+        <v>70.76447982264375</v>
       </c>
       <c r="R7">
-        <v>68.63376068198697</v>
+        <v>283.057919290575</v>
       </c>
       <c r="S7">
-        <v>0.02649498338028056</v>
+        <v>0.02084941252956297</v>
       </c>
       <c r="T7">
-        <v>0.02649498338028056</v>
+        <v>0.01348196207594374</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H8">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I8">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J8">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N8">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O8">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P8">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q8">
-        <v>0.577048295480302</v>
+        <v>1.444834247688</v>
       </c>
       <c r="R8">
-        <v>0.577048295480302</v>
+        <v>8.669005486128</v>
       </c>
       <c r="S8">
-        <v>0.0002227604147936836</v>
+        <v>0.0004256930220131229</v>
       </c>
       <c r="T8">
-        <v>0.0002227604147936836</v>
+        <v>0.0004129020784617119</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H9">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I9">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J9">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N9">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O9">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P9">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q9">
-        <v>77.02246404804001</v>
+        <v>95.11349715036002</v>
       </c>
       <c r="R9">
-        <v>77.02246404804001</v>
+        <v>856.0214743532401</v>
       </c>
       <c r="S9">
-        <v>0.02973331032109193</v>
+        <v>0.02802338891188617</v>
       </c>
       <c r="T9">
-        <v>0.02973331032109193</v>
+        <v>0.04077204086834431</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H10">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I10">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J10">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N10">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O10">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P10">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q10">
-        <v>63.02311920904079</v>
+        <v>73.405048267512</v>
       </c>
       <c r="R10">
-        <v>63.02311920904079</v>
+        <v>660.645434407608</v>
       </c>
       <c r="S10">
-        <v>0.02432908352135827</v>
+        <v>0.02162740596578389</v>
       </c>
       <c r="T10">
-        <v>0.02432908352135827</v>
+        <v>0.03146633987366174</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H11">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I11">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J11">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N11">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O11">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P11">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q11">
-        <v>63.06747950712248</v>
+        <v>74.76010376515201</v>
       </c>
       <c r="R11">
-        <v>63.06747950712248</v>
+        <v>672.840933886368</v>
       </c>
       <c r="S11">
-        <v>0.02434620811643713</v>
+        <v>0.02202664738099046</v>
       </c>
       <c r="T11">
-        <v>0.02434620811643713</v>
+        <v>0.03204720778183374</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H12">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I12">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J12">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N12">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O12">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P12">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q12">
-        <v>3.146649368187068</v>
+        <v>4.068481010256001</v>
       </c>
       <c r="R12">
-        <v>3.146649368187068</v>
+        <v>36.61632909230401</v>
       </c>
       <c r="S12">
-        <v>0.001214714477033857</v>
+        <v>0.00119870080532094</v>
       </c>
       <c r="T12">
-        <v>0.001214714477033857</v>
+        <v>0.001744024549533794</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H13">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I13">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J13">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N13">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O13">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P13">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q13">
-        <v>109.100693785694</v>
+        <v>129.312099066852</v>
       </c>
       <c r="R13">
-        <v>109.100693785694</v>
+        <v>775.8725944011121</v>
       </c>
       <c r="S13">
-        <v>0.04211660617028798</v>
+        <v>0.03809935867918017</v>
       </c>
       <c r="T13">
-        <v>0.04211660617028798</v>
+        <v>0.03695457424295483</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H14">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I14">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J14">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N14">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O14">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P14">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q14">
-        <v>0.5211615928613201</v>
+        <v>1.158564369797</v>
       </c>
       <c r="R14">
-        <v>0.5211615928613201</v>
+        <v>6.951386218782</v>
       </c>
       <c r="S14">
-        <v>0.0002011862326076093</v>
+        <v>0.0003413490291808996</v>
       </c>
       <c r="T14">
-        <v>0.0002011862326076093</v>
+        <v>0.000331092398374658</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H15">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I15">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J15">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N15">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O15">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P15">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q15">
-        <v>69.56289510563252</v>
+        <v>76.26833947321502</v>
       </c>
       <c r="R15">
-        <v>69.56289510563252</v>
+        <v>686.415055258935</v>
       </c>
       <c r="S15">
-        <v>0.02685366110488609</v>
+        <v>0.02247102044143032</v>
       </c>
       <c r="T15">
-        <v>0.02685366110488609</v>
+        <v>0.03269373902892928</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H16">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I16">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J16">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N16">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O16">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P16">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q16">
-        <v>56.9193765085712</v>
+        <v>58.86105871455856</v>
       </c>
       <c r="R16">
-        <v>56.9193765085712</v>
+        <v>529.749528431027</v>
       </c>
       <c r="S16">
-        <v>0.0219728296923459</v>
+        <v>0.0173422951478259</v>
       </c>
       <c r="T16">
-        <v>0.0219728296923459</v>
+        <v>0.02523180792806031</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H17">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I17">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J17">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N17">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O17">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P17">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q17">
-        <v>56.95944054443984</v>
+        <v>59.94763250056579</v>
       </c>
       <c r="R17">
-        <v>56.95944054443984</v>
+        <v>539.528692505092</v>
       </c>
       <c r="S17">
-        <v>0.02198829578299777</v>
+        <v>0.01766243351618603</v>
       </c>
       <c r="T17">
-        <v>0.02198829578299777</v>
+        <v>0.02569758652034068</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H18">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I18">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J18">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N18">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O18">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P18">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q18">
-        <v>2.841898693306891</v>
+        <v>3.262379158869556</v>
       </c>
       <c r="R18">
-        <v>2.841898693306891</v>
+        <v>29.361412429826</v>
       </c>
       <c r="S18">
-        <v>0.001097070274153995</v>
+        <v>0.000961198175717458</v>
       </c>
       <c r="T18">
-        <v>0.001097070274153995</v>
+        <v>0.001398475089010653</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H19">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I19">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J19">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N19">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O19">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P19">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q19">
-        <v>98.53437190781605</v>
+        <v>103.6910571591505</v>
       </c>
       <c r="R19">
-        <v>98.53437190781605</v>
+        <v>622.146342954903</v>
       </c>
       <c r="S19">
-        <v>0.03803764386714049</v>
+        <v>0.0305506043675579</v>
       </c>
       <c r="T19">
-        <v>0.03803764386714049</v>
+        <v>0.02963263992905489</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H20">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I20">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J20">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N20">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O20">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P20">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q20">
-        <v>0.5136463294112033</v>
+        <v>1.190925559995</v>
       </c>
       <c r="R20">
-        <v>0.5136463294112033</v>
+        <v>7.145553359970001</v>
       </c>
       <c r="S20">
-        <v>0.0001982850834030381</v>
+        <v>0.0003508836404163213</v>
       </c>
       <c r="T20">
-        <v>0.0001982850834030381</v>
+        <v>0.0003403405198914554</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H21">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I21">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J21">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N21">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O21">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P21">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q21">
-        <v>68.55978303783517</v>
+        <v>78.39867793702501</v>
       </c>
       <c r="R21">
-        <v>68.55978303783517</v>
+        <v>705.5881014332251</v>
       </c>
       <c r="S21">
-        <v>0.02646642547477111</v>
+        <v>0.02309868428593099</v>
       </c>
       <c r="T21">
-        <v>0.02646642547477111</v>
+        <v>0.03360694535097796</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H22">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I22">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J22">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N22">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O22">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P22">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q22">
-        <v>56.09858672717199</v>
+        <v>60.50517445467167</v>
       </c>
       <c r="R22">
-        <v>56.09858672717199</v>
+        <v>544.546570092045</v>
       </c>
       <c r="S22">
-        <v>0.02165597671211013</v>
+        <v>0.01782670268389314</v>
       </c>
       <c r="T22">
-        <v>0.02165597671211013</v>
+        <v>0.02593658649426327</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H23">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I23">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J23">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N23">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O23">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P23">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q23">
-        <v>56.13807303093498</v>
+        <v>61.62209857931335</v>
       </c>
       <c r="R23">
-        <v>56.13807303093498</v>
+        <v>554.59888721382</v>
       </c>
       <c r="S23">
-        <v>0.02167121977837305</v>
+        <v>0.01815578320419428</v>
       </c>
       <c r="T23">
-        <v>0.02167121977837305</v>
+        <v>0.02641537528261724</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H24">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I24">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J24">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N24">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O24">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P24">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q24">
-        <v>2.80091789642682</v>
+        <v>3.353504412856668</v>
       </c>
       <c r="R24">
-        <v>2.80091789642682</v>
+        <v>30.18153971571001</v>
       </c>
       <c r="S24">
-        <v>0.001081250282338609</v>
+        <v>0.0009880465043846114</v>
       </c>
       <c r="T24">
-        <v>0.001081250282338609</v>
+        <v>0.001437537500666355</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H25">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I25">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J25">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N25">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O25">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P25">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q25">
-        <v>97.11348484721471</v>
+        <v>106.5873710024175</v>
       </c>
       <c r="R25">
-        <v>97.11348484721471</v>
+        <v>639.5242260145051</v>
       </c>
       <c r="S25">
-        <v>0.03748913277461385</v>
+        <v>0.03140394833736738</v>
       </c>
       <c r="T25">
-        <v>0.03748913277461385</v>
+        <v>0.03046034318129716</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H26">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I26">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J26">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N26">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O26">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P26">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q26">
-        <v>0.1887048470260423</v>
+        <v>0.493651881993</v>
       </c>
       <c r="R26">
-        <v>0.1887048470260423</v>
+        <v>2.961911291958</v>
       </c>
       <c r="S26">
-        <v>7.284653698198943E-05</v>
+        <v>0.0001454451690941954</v>
       </c>
       <c r="T26">
-        <v>7.284653698198943E-05</v>
+        <v>0.0001410749284477514</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H27">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I27">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J27">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N27">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O27">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P27">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q27">
-        <v>25.18768777170814</v>
+        <v>32.49712342183501</v>
       </c>
       <c r="R27">
-        <v>25.18768777170814</v>
+        <v>292.474110796515</v>
       </c>
       <c r="S27">
-        <v>0.009723310543789703</v>
+        <v>0.009574661383000159</v>
       </c>
       <c r="T27">
-        <v>0.009723310543789703</v>
+        <v>0.01393045239587924</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H28">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I28">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J28">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N28">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O28">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P28">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q28">
-        <v>20.60965808684559</v>
+        <v>25.08006733854033</v>
       </c>
       <c r="R28">
-        <v>20.60965808684559</v>
+        <v>225.720606046863</v>
       </c>
       <c r="S28">
-        <v>0.007956034217829928</v>
+        <v>0.007389366409828719</v>
       </c>
       <c r="T28">
-        <v>0.007956034217829928</v>
+        <v>0.01075100339220282</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H29">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I29">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J29">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N29">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O29">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P29">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q29">
-        <v>20.62416467724556</v>
+        <v>25.54304480303867</v>
       </c>
       <c r="R29">
-        <v>20.62416467724556</v>
+        <v>229.887403227348</v>
       </c>
       <c r="S29">
-        <v>0.007961634258797123</v>
+        <v>0.007525773943289145</v>
       </c>
       <c r="T29">
-        <v>0.007961634258797123</v>
+        <v>0.01094946666680839</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H30">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I30">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J30">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N30">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O30">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P30">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q30">
-        <v>1.029009170149438</v>
+        <v>1.390064853999333</v>
       </c>
       <c r="R30">
-        <v>1.029009170149438</v>
+        <v>12.510583685994</v>
       </c>
       <c r="S30">
-        <v>0.0003972327989951018</v>
+        <v>0.0004095562584013362</v>
       </c>
       <c r="T30">
-        <v>0.0003972327989951018</v>
+        <v>0.000595875272542172</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H31">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I31">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J31">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N31">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O31">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P31">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q31">
-        <v>35.67782782224204</v>
+        <v>44.1816500203845</v>
       </c>
       <c r="R31">
-        <v>35.67782782224204</v>
+        <v>265.089900122307</v>
       </c>
       <c r="S31">
-        <v>0.01377286405118852</v>
+        <v>0.01301728564698656</v>
       </c>
       <c r="T31">
-        <v>0.01377286405118852</v>
+        <v>0.01262615082143599</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H32">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I32">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J32">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N32">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O32">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P32">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q32">
-        <v>2.567776983283223</v>
+        <v>7.8910035842025</v>
       </c>
       <c r="R32">
-        <v>2.567776983283223</v>
+        <v>31.56401433681</v>
       </c>
       <c r="S32">
-        <v>0.0009912499012196974</v>
+        <v>0.002324934619905913</v>
       </c>
       <c r="T32">
-        <v>0.0009912499012196974</v>
+        <v>0.001503384343811879</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H33">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I33">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J33">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N33">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O33">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P33">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q33">
-        <v>342.7382281992511</v>
+        <v>519.4650861304875</v>
       </c>
       <c r="R33">
-        <v>342.7382281992511</v>
+        <v>3116.790516782925</v>
       </c>
       <c r="S33">
-        <v>0.1323087001162861</v>
+        <v>0.1530505403640918</v>
       </c>
       <c r="T33">
-        <v>0.1323087001162861</v>
+        <v>0.1484517785308529</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H34">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I34">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J34">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N34">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O34">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P34">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q34">
-        <v>280.4432769097641</v>
+        <v>400.9037714217975</v>
       </c>
       <c r="R34">
-        <v>280.4432769097641</v>
+        <v>2405.422628530785</v>
       </c>
       <c r="S34">
-        <v>0.1082607143627745</v>
+        <v>0.1181186964982964</v>
       </c>
       <c r="T34">
-        <v>0.1082607143627745</v>
+        <v>0.1145695437023894</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H35">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I35">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J35">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N35">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O35">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P35">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q35">
-        <v>280.6406734765296</v>
+        <v>408.30444579381</v>
       </c>
       <c r="R35">
-        <v>280.6406734765296</v>
+        <v>2449.82667476286</v>
       </c>
       <c r="S35">
-        <v>0.1083369162014005</v>
+        <v>0.1202991649107792</v>
       </c>
       <c r="T35">
-        <v>0.1083369162014005</v>
+        <v>0.116684494836135</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H36">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I36">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J36">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N36">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O36">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P36">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q36">
-        <v>14.0021101966313</v>
+        <v>22.220125447305</v>
       </c>
       <c r="R36">
-        <v>14.0021101966313</v>
+        <v>133.32075268383</v>
       </c>
       <c r="S36">
-        <v>0.005405294322535484</v>
+        <v>0.006546738746198756</v>
       </c>
       <c r="T36">
-        <v>0.005405294322535484</v>
+        <v>0.00635002665222912</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H37">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I37">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J37">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N37">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O37">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P37">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q37">
-        <v>485.4814623964156</v>
+        <v>706.2417290080913</v>
       </c>
       <c r="R37">
-        <v>485.4814623964156</v>
+        <v>2824.966916032365</v>
       </c>
       <c r="S37">
-        <v>0.1874124796574523</v>
+        <v>0.2080807375477914</v>
       </c>
       <c r="T37">
-        <v>0.1874124796574523</v>
+        <v>0.1345523097293969</v>
       </c>
     </row>
   </sheetData>
